--- a/introduction/code/test.xlsx
+++ b/introduction/code/test.xlsx
@@ -1,154 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculations" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Seminar" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Figure" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pandas" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Info" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="format" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Calculations" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Seminar" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Figure" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Pandas" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Info" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="format" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
-  <si>
-    <t>Calculation</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Warning Text</t>
-  </si>
-  <si>
-    <t>Explanatory Text</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Headline 2</t>
-  </si>
-  <si>
-    <t>Headline 3</t>
-  </si>
-  <si>
-    <t>Headline 4</t>
-  </si>
-  <si>
-    <t>Hyperlink</t>
-  </si>
-  <si>
-    <t>Followed Hyperlink</t>
-  </si>
-  <si>
-    <t>Linked Cell</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>Output</t>
-  </si>
-  <si>
-    <t>Check Cell</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Bad</t>
-  </si>
-  <si>
-    <t>Neutral</t>
-  </si>
-  <si>
-    <t>20 % - Accent1</t>
-  </si>
-  <si>
-    <t>40 % - Accent1</t>
-  </si>
-  <si>
-    <t>60 % - Accent1</t>
-  </si>
-  <si>
-    <t>Accent2</t>
-  </si>
-  <si>
-    <t>20 % - Accent2</t>
-  </si>
-  <si>
-    <t>40 % - Accent2</t>
-  </si>
-  <si>
-    <t>60 % - Accent2</t>
-  </si>
-  <si>
-    <t>Accent3</t>
-  </si>
-  <si>
-    <t>20 % - Accent3</t>
-  </si>
-  <si>
-    <t>40 % - Accent3</t>
-  </si>
-  <si>
-    <t>60 % - Accent3</t>
-  </si>
-  <si>
-    <t>Accent4</t>
-  </si>
-  <si>
-    <t>20 % - Accent4</t>
-  </si>
-  <si>
-    <t>40 % - Accent4</t>
-  </si>
-  <si>
-    <t>60 % - Accent4</t>
-  </si>
-  <si>
-    <t>Accent5</t>
-  </si>
-  <si>
-    <t>20 % - Accent5</t>
-  </si>
-  <si>
-    <t>40 % - Accent5</t>
-  </si>
-  <si>
-    <t>60 % - Accent5</t>
-  </si>
-  <si>
-    <t>Accent6</t>
-  </si>
-  <si>
-    <t>20 % - Accent6</t>
-  </si>
-  <si>
-    <t>40 % - Accent6</t>
-  </si>
-  <si>
-    <t>60 % - Accent6</t>
-  </si>
-  <si>
-    <t>Pandas</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -621,7 +490,9 @@
   </borders>
   <cellStyleXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
     <xf borderId="2" fillId="2" fontId="6" numFmtId="0"/>
     <xf borderId="3" fillId="0" fontId="7" numFmtId="0"/>
@@ -791,7 +662,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -806,13 +677,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1109,7 +980,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1117,17 +988,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1">
       <c r="A1" s="1" t="n">
         <v>40380</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2">
       <c r="A2" s="2" t="n">
         <v>0.13</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="3"/>
+    <row r="5">
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
@@ -1173,12 +1045,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2">
       <c r="D2" t="n">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4">
       <c r="A4" t="n">
         <v>138</v>
       </c>
@@ -1189,7 +1061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5">
       <c r="B5" t="n">
         <v>1</v>
       </c>
@@ -1197,7 +1069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6">
       <c r="B6" t="n">
         <v>2</v>
       </c>
@@ -1211,7 +1083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1223,11 +1095,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1"/>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1237,7 +1107,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,7 +1115,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="9" t="n"/>
       <c r="B1" s="6" t="n">
         <v>0</v>
@@ -1278,179 +1148,183 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="7" t="n">
+    <row r="2">
+      <c r="A2" s="7" t="n"/>
+      <c r="B2" s="10" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="n">
-        <v>0.05706775021316968</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.003098005648033394</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-0.01992949719353081</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.8397233657033851</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.3084560437872247</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.1880509009793525</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-1.031782342131627</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-1.565950822019568</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.3933496589628968</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-0.7511679130406375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="8" t="n">
+      <c r="B3" t="n">
+        <v>0.04346528549312696</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.3287487503282238</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.215454724484728</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6039859715158328</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.739347010352099</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.6945481619283236</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5846410590406057</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.3379433096697346</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1.473323916994306</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-1.052195977398736</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>-1.977868721553439</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.02220352411903702</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.05374079810200028</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.8011188001093646</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.2857942864225127</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.097703981608849</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-0.934681408991564</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.1387314575480294</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-0.7583974216594462</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-0.4993875581118558</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="6" t="n">
+      <c r="B4" t="n">
+        <v>0.2000039146772646</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.265147716344849</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.5283495765573253</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.1683015573680223</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.432220356412131</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1.924027445258505</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.567862339558955</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.325918568339117</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4104367167221834</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.5742361855440251</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.9210593849929551</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-0.4703601266298753</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-0.05444098125233118</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.6843208020747584</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.7348207824226148</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.7840869614006828</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-0.8453388328080185</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-0.1001718548603596</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.473858260006299</v>
-      </c>
-      <c r="K4" t="n">
-        <v>-0.151218596596652</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="6" t="n">
+      <c r="B5" t="n">
+        <v>0.2472947841443694</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.754764999066155</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.937761796593179</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4284893906660103</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.07892115929720171</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.646157289738415</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.115486041730363</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.2557098801902917</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.8484974998898706</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.7386949174634889</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.8792048999416949</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-0.151647732250248</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6789985523380488</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-1.132924361339648</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-0.6507894131800718</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-0.06083153124115478</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.08879940980178784</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.8777870278064829</v>
-      </c>
-      <c r="J5" t="n">
-        <v>-1.30784167161788</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.4702730217287497</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="6" t="n">
+      <c r="B6" t="n">
+        <v>1.395782966668539</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.294087772499549</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.004826859666080591</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.1583632256518276</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6909550256634353</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.522697690216246</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-2.042654676899034</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5727304300669755</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.6917695014510927</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.107559734763186</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>-0.008815968052507721</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.3832546393055714</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.9714650204592201</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.347070318962063</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.3119611126419247</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-0.7824486253705435</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-2.783631001917218</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-0.7786988621325497</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.2951143257758586</v>
-      </c>
-      <c r="K6" t="n">
-        <v>-1.444290938295163</v>
+      <c r="B7" t="n">
+        <v>-0.7165036918826153</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.4922656485492854</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1.709316619112009</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6541013147384994</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-1.391197488801772</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.3842948297000199</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.07087214399598209</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.6106336776934317</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.056354667612386</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.138316605146501</v>
       </c>
     </row>
   </sheetData>
@@ -1472,214 +1346,298 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="40" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="42" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="43" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="45" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="46" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="47" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="48" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="49" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="50" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="6" t="s">
-        <v>41</v>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Calculation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="13" t="inlineStr">
+        <is>
+          <t>Warning Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="14" t="inlineStr">
+        <is>
+          <t>Explanatory Text</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="15" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="16" t="inlineStr">
+        <is>
+          <t>Headline 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="17" t="inlineStr">
+        <is>
+          <t>Headline 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="18" t="inlineStr">
+        <is>
+          <t>Headline 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="19" t="inlineStr">
+        <is>
+          <t>Hyperlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="20" t="inlineStr">
+        <is>
+          <t>Followed Hyperlink</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="21" t="inlineStr">
+        <is>
+          <t>Linked Cell</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="22" t="inlineStr">
+        <is>
+          <t>Input</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="23" t="inlineStr">
+        <is>
+          <t>Output</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="24" t="inlineStr">
+        <is>
+          <t>Check Cell</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="25" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="26" t="inlineStr">
+        <is>
+          <t>Bad</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="27" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="28" t="inlineStr">
+        <is>
+          <t>20 % - Accent1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="29" t="inlineStr">
+        <is>
+          <t>40 % - Accent1</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="30" t="inlineStr">
+        <is>
+          <t>60 % - Accent1</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="31" t="inlineStr">
+        <is>
+          <t>Accent2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="32" t="inlineStr">
+        <is>
+          <t>20 % - Accent2</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="33" t="inlineStr">
+        <is>
+          <t>40 % - Accent2</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="34" t="inlineStr">
+        <is>
+          <t>60 % - Accent2</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="35" t="inlineStr">
+        <is>
+          <t>Accent3</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="36" t="inlineStr">
+        <is>
+          <t>20 % - Accent3</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="37" t="inlineStr">
+        <is>
+          <t>40 % - Accent3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="38" t="inlineStr">
+        <is>
+          <t>60 % - Accent3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="39" t="inlineStr">
+        <is>
+          <t>Accent4</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="40" t="inlineStr">
+        <is>
+          <t>20 % - Accent4</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="41" t="inlineStr">
+        <is>
+          <t>40 % - Accent4</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="42" t="inlineStr">
+        <is>
+          <t>60 % - Accent4</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="43" t="inlineStr">
+        <is>
+          <t>Accent5</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="44" t="inlineStr">
+        <is>
+          <t>20 % - Accent5</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="45" t="inlineStr">
+        <is>
+          <t>40 % - Accent5</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="46" t="inlineStr">
+        <is>
+          <t>60 % - Accent5</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="47" t="inlineStr">
+        <is>
+          <t>Accent6</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="48" t="inlineStr">
+        <is>
+          <t>20 % - Accent6</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="49" t="inlineStr">
+        <is>
+          <t>40 % - Accent6</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="50" t="inlineStr">
+        <is>
+          <t>60 % - Accent6</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>Pandas</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1701,59 +1659,59 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1">
       <c r="A1" t="n">
-        <v>0.9407422600436547</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>0.9059300764874035</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="n">
-        <v>0.6417428055467664</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>0.2636753696961258</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="n">
-        <v>0.4908477641629952</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>0.4550573706844177</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="n">
-        <v>0.9125231501972526</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>0.08108930423930771</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="n">
-        <v>0.4471032129765236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>0.5592455660122266</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="n">
-        <v>0.3470865248080081</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>0.5093207213328109</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="n">
-        <v>0.2443007779224921</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>0.1377450715877147</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="n">
-        <v>0.6959718551222732</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>0.3161718697874519</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="n">
-        <v>0.9455969737472129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>0.3445748477867553</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="n">
-        <v>0.7315723475599938</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>0.5781783408029141</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="n">
-        <v>0.1260835417643891</v>
+        <v>0.7824113608577149</v>
       </c>
     </row>
   </sheetData>
